--- a/canteen/controllers/lastMonthReport.xlsx
+++ b/canteen/controllers/lastMonthReport.xlsx
@@ -28,33 +28,33 @@
     <t>Payment Mode</t>
   </si>
   <si>
+    <t>63aa79d0fab3a329dc0bfa40</t>
+  </si>
+  <si>
+    <t>Het Patel</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>KOT</t>
+  </si>
+  <si>
+    <t>63aa7ecfbad77907fc2e1172</t>
+  </si>
+  <si>
     <t>63aacfe21256d54b0cdab56a</t>
   </si>
   <si>
-    <t>Het Patel</t>
-  </si>
-  <si>
     <t>1300</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>KOT</t>
-  </si>
-  <si>
-    <t>63aa79d0fab3a329dc0bfa40</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>63aa7ecfbad77907fc2e1172</t>
-  </si>
-  <si>
     <t>63ab34934fca7539c8e071e3</t>
   </si>
   <si>
@@ -193,54 +193,54 @@
     <t>140</t>
   </si>
   <si>
+    <t>63add5d1c894b51e68ac13ca</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>63add578c894b51e68ac12d6</t>
   </si>
   <si>
-    <t>63add5d1c894b51e68ac13ca</t>
-  </si>
-  <si>
-    <t>220</t>
+    <t>63add6bcc894b51e68ac1416</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>63add739c894b51e68ac1507</t>
   </si>
   <si>
-    <t>63add6bcc894b51e68ac1416</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>63add78cc894b51e68ac15da</t>
   </si>
   <si>
     <t>180</t>
   </si>
   <si>
+    <t>63addb19c894b51e68ac1613</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
     <t>63addb8e73a07653c45a7266</t>
   </si>
   <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>63addb19c894b51e68ac1613</t>
-  </si>
-  <si>
     <t>63addc6c1fbe7e26bc814cb5</t>
   </si>
   <si>
+    <t>63addd752f0f8e22903455e4</t>
+  </si>
+  <si>
     <t>63addd73117aab43d0ca3b12</t>
   </si>
   <si>
     <t>63addf696c54d55f4477849c</t>
   </si>
   <si>
-    <t>63addd752f0f8e22903455e4</t>
-  </si>
-  <si>
     <t>63adde9ccd96b22e90a9f248</t>
   </si>
   <si>
@@ -262,39 +262,48 @@
     <t>60</t>
   </si>
   <si>
+    <t>63ade17d6c54d55f44778594</t>
+  </si>
+  <si>
     <t>63ade2056c54d55f447787b0</t>
   </si>
   <si>
     <t>420</t>
   </si>
   <si>
-    <t>63ade17d6c54d55f44778594</t>
-  </si>
-  <si>
     <t>63ade2416c54d55f447787e9</t>
   </si>
   <si>
     <t>63ade7526c54d55f4477881a</t>
   </si>
   <si>
+    <t>63ade7f76c54d55f4477958c</t>
+  </si>
+  <si>
     <t>63ade7f76c54d55f44779587</t>
   </si>
   <si>
-    <t>63ade7f76c54d55f4477958c</t>
+    <t>63ade7f76c54d55f44779592</t>
+  </si>
+  <si>
+    <t>63ade8e36c54d55f4477a544</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>63ade9986c54d55f4477b64d</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>63ade9046c54d55f4477a56e</t>
   </si>
   <si>
     <t>63ade7f76c54d55f44779598</t>
   </si>
   <si>
-    <t>63ade7f76c54d55f44779592</t>
-  </si>
-  <si>
-    <t>63ade8e36c54d55f4477a544</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>63adeaaf6c54d55f4477bb0c</t>
   </si>
   <si>
@@ -304,10 +313,10 @@
     <t>10</t>
   </si>
   <si>
-    <t>63ade9986c54d55f4477b64d</t>
-  </si>
-  <si>
-    <t>130</t>
+    <t>63adec436c54d55f4477bc19</t>
+  </si>
+  <si>
+    <t>63adec316c54d55f4477bc07</t>
   </si>
   <si>
     <t>63adeba76c54d55f4477bbd7</t>
@@ -316,10 +325,7 @@
     <t>84</t>
   </si>
   <si>
-    <t>63ade9046c54d55f4477a56e</t>
-  </si>
-  <si>
-    <t>63adec316c54d55f4477bc07</t>
+    <t>63adec846c54d55f4477bc4d</t>
   </si>
   <si>
     <t>63adef7c6c54d55f4477bcb8</t>
@@ -328,10 +334,10 @@
     <t>880</t>
   </si>
   <si>
-    <t>63adec436c54d55f4477bc19</t>
-  </si>
-  <si>
-    <t>63adec846c54d55f4477bc4d</t>
+    <t>63adf64d6c54d55f4477ce4b</t>
+  </si>
+  <si>
+    <t>1660</t>
   </si>
   <si>
     <t>63adf20c6c54d55f4477bd69</t>
@@ -340,28 +346,22 @@
     <t>63adf6ae6c54d55f4477cec0</t>
   </si>
   <si>
+    <t>63adf7646c54d55f4477cf00</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>63adf7bc6c54d55f4477cf65</t>
+  </si>
+  <si>
     <t>63adf7186c54d55f4477ced7</t>
   </si>
   <si>
-    <t>63adf7646c54d55f4477cf00</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>63adf64d6c54d55f4477ce4b</t>
-  </si>
-  <si>
-    <t>1660</t>
-  </si>
-  <si>
-    <t>63adf7bc6c54d55f4477cf65</t>
+    <t>63adf9146c54d55f4477d437</t>
   </si>
   <si>
     <t>63aec8e0bad28f10dc9e2b3b</t>
-  </si>
-  <si>
-    <t>63adf9146c54d55f4477d437</t>
   </si>
 </sst>
 </file>
@@ -455,10 +455,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>9</v>
@@ -466,16 +466,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>9</v>
@@ -492,7 +492,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
@@ -526,7 +526,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>9</v>
@@ -611,7 +611,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>9</v>
@@ -829,10 +829,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>9</v>
@@ -840,16 +840,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>9</v>
@@ -863,10 +863,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>9</v>
@@ -874,16 +874,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>9</v>
@@ -982,10 +982,10 @@
         <v>23</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>9</v>
@@ -999,10 +999,10 @@
         <v>23</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>9</v>
@@ -1084,10 +1084,10 @@
         <v>23</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>9</v>
@@ -1095,16 +1095,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="D41" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>9</v>
@@ -1135,7 +1135,7 @@
         <v>23</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>31</v>
@@ -1203,7 +1203,7 @@
         <v>23</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>31</v>
@@ -1214,16 +1214,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>9</v>
@@ -1231,16 +1231,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>9</v>
@@ -1248,16 +1248,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>9</v>
@@ -1265,16 +1265,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>28</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>9</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>31</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>23</v>
@@ -1316,16 +1316,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="D54" s="0" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>9</v>
@@ -1333,13 +1333,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>31</v>
@@ -1350,16 +1350,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="D56" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>9</v>
@@ -1373,10 +1373,10 @@
         <v>23</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>9</v>
@@ -1384,16 +1384,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>9</v>
@@ -1401,16 +1401,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>9</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>28</v>
@@ -1435,16 +1435,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>9</v>
@@ -1458,10 +1458,10 @@
         <v>23</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>9</v>
@@ -1472,10 +1472,10 @@
         <v>115</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>31</v>
@@ -1489,10 +1489,10 @@
         <v>116</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>31</v>
